--- a/Albatross_Raw_Data/Sphyraena_obtusata.xlsx
+++ b/Albatross_Raw_Data/Sphyraena_obtusata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2486A33-8F1D-4117-A81F-892A3ED6E7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7367BF-E18F-4BF4-8F98-67D9E294C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{511CE753-047F-400D-AD8A-4E1FF8509DEF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{511CE753-047F-400D-AD8A-4E1FF8509DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CDAE06-F857-462E-8075-68E9D2770997}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
